--- a/Code Practice.xlsx
+++ b/Code Practice.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\AjairaPractice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView windowWidth="20400" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="UVA" sheetId="1" r:id="rId1"/>
     <sheet name="LightOJ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>Problems ID</t>
   </si>
@@ -40,103 +36,124 @@
     <t>Sajid</t>
   </si>
   <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
     <t>Green : Solved</t>
   </si>
   <si>
+    <t>Ash : Not Solved</t>
+  </si>
+  <si>
+    <t>Red : Error - Local Error if the error is specified in the box</t>
+  </si>
+  <si>
+    <t>Yellow : Solving</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
     <t>White : Not Solved</t>
   </si>
   <si>
     <t>Red : Error</t>
-  </si>
-  <si>
-    <t>Runtime</t>
-  </si>
-  <si>
-    <t>Yellow : Solving</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Red : Error - Local Error if the error is specified in the box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF6AA84F"/>
+      <color indexed="57"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFD9D9D9"/>
+      <color indexed="22"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="51"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="51"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFF1C232"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,32 +162,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,65 +210,77 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFEAEAEA"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,106 +290,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,159 +401,225 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,468 +640,472 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="1">
         <v>119</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>133</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1">
         <v>136</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1">
         <v>146</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="12"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1">
         <v>194</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="13"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="1">
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="1">
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="1">
         <v>412</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
       <c r="A12" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="1">
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="1">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="1">
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="1">
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="1">
         <v>579</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:1">
       <c r="A26" s="1">
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="1">
         <v>729</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:1">
       <c r="A28" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="1">
         <v>913</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:1">
       <c r="A30" s="1">
         <v>10035</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75" customHeight="1" spans="1:1">
       <c r="A31" s="1">
         <v>10038</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75" customHeight="1" spans="1:2">
       <c r="A32" s="1">
         <v>10055</v>
       </c>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" spans="1:5">
+      <c r="A33" s="14">
         <v>10066</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1" spans="1:2">
       <c r="A34" s="1">
         <v>10071</v>
       </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1" spans="1:2">
       <c r="A35" s="1">
         <v>10082</v>
       </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" spans="1:5">
       <c r="A36" s="1">
         <v>10110</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1" spans="1:5">
       <c r="A37" s="1">
         <v>10130</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1" spans="1:5">
       <c r="A38" s="1">
         <v>10222</v>
       </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1" spans="1:5">
       <c r="A39" s="1">
         <v>10235</v>
       </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1" spans="1:5">
       <c r="A40" s="1">
         <v>10327</v>
       </c>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1" spans="1:5">
       <c r="A41" s="1">
         <v>10346</v>
       </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1" spans="1:5">
       <c r="A42" s="1">
         <v>10370</v>
       </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1" spans="1:5">
       <c r="A43" s="1">
         <v>10424</v>
       </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" spans="1:1">
       <c r="A44" s="1">
         <v>10469</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" ht="12.75" customHeight="1" spans="1:1">
       <c r="A45" s="1">
         <v>10591</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" ht="12.75" customHeight="1" spans="1:1">
       <c r="A46" s="1">
         <v>10696</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" ht="12.75" customHeight="1" spans="1:1">
       <c r="A47" s="1">
         <v>10699</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" ht="12.75" customHeight="1" spans="1:1">
       <c r="A48" s="1">
         <v>10789</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" ht="12.75" customHeight="1" spans="1:1">
       <c r="A49" s="1">
         <v>10812</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" ht="12.75" customHeight="1" spans="1:1">
       <c r="A50" s="1">
         <v>10922</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="12.75" customHeight="1" spans="1:1">
       <c r="A51" s="1">
         <v>10924</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" ht="12.75" customHeight="1" spans="1:1">
       <c r="A52" s="1">
         <v>10929</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" ht="12.75" customHeight="1" spans="1:1">
       <c r="A53" s="1">
         <v>10931</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" ht="12.75" customHeight="1" spans="1:1">
       <c r="A54" s="1">
         <v>10970</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" ht="12.75" customHeight="1" spans="1:1">
       <c r="A55" s="1">
         <v>11152</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="12.75" customHeight="1" spans="1:1">
       <c r="A56" s="1">
         <v>11172</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" ht="12.75" customHeight="1" spans="1:1">
       <c r="A57" s="1">
         <v>11185</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" ht="12.75" customHeight="1" spans="1:1">
       <c r="A58" s="1">
         <v>11192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" ht="12.75" customHeight="1" spans="1:1">
       <c r="A59" s="1">
         <v>11219</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" ht="12.75" customHeight="1" spans="1:1">
       <c r="A60" s="1">
         <v>11233</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" ht="12.75" customHeight="1" spans="1:1">
       <c r="A61" s="1">
         <v>11462</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" ht="12.75" customHeight="1" spans="1:1">
       <c r="A62" s="1">
         <v>11530</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" ht="12.75" customHeight="1" spans="1:1">
       <c r="A63" s="1">
         <v>11727</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" ht="12.75" customHeight="1" spans="1:1">
       <c r="A64" s="1">
         <v>11764</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" ht="12.75" customHeight="1" spans="1:1">
       <c r="A65" s="1">
         <v>11799</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" ht="12.75" customHeight="1" spans="1:1">
       <c r="A66" s="1">
         <v>11804</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" ht="12.75" customHeight="1" spans="1:1">
       <c r="A67" s="1">
         <v>11805</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" ht="12.75" customHeight="1" spans="1:1">
       <c r="A68" s="1">
         <v>11827</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" ht="12.75" customHeight="1" spans="1:1">
       <c r="A69" s="1">
         <v>11854</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" ht="12.75" customHeight="1" spans="1:1">
       <c r="A70" s="1">
         <v>11875</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" ht="12.75" customHeight="1" spans="1:1">
       <c r="A71" s="1">
         <v>11900</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" ht="12.75" customHeight="1" spans="1:1">
       <c r="A72" s="1">
         <v>11911</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" ht="12.75" customHeight="1" spans="1:1">
       <c r="A73" s="1">
         <v>11917</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" ht="12.75" customHeight="1" spans="1:1">
       <c r="A74" s="1">
         <v>11934</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" ht="12.75" customHeight="1" spans="1:1">
       <c r="A75" s="1">
         <v>11936</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" ht="12.75" customHeight="1" spans="1:1">
       <c r="A76" s="1">
         <v>11942</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" ht="12.75" customHeight="1" spans="1:1">
       <c r="A77" s="1">
         <v>11984</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" ht="12.75" customHeight="1" spans="1:1">
       <c r="A78" s="1">
         <v>11988</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" ht="12.75" customHeight="1" spans="1:1">
       <c r="A79" s="1">
         <v>11995</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" ht="12.75" customHeight="1" spans="1:1">
       <c r="A80" s="1">
         <v>12015</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" ht="12.75" customHeight="1" spans="1:1">
       <c r="A81" s="1">
         <v>12149</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" ht="12.75" customHeight="1" spans="1:1">
       <c r="A82" s="1">
         <v>12372</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,26 +1125,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1"/>
       <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Code Practice.xlsx
+++ b/Code Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8400"/>
+    <workbookView windowWidth="20370" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="UVA" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -147,11 +147,6 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -219,26 +214,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,9 +257,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -580,11 +575,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -608,10 +603,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -644,29 +639,29 @@
       <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="1">
         <v>119</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>133</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="18"/>
@@ -675,7 +670,7 @@
       <c r="A5" s="1">
         <v>136</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="18"/>
@@ -684,14 +679,14 @@
       <c r="A6" s="1">
         <v>146</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1">
         <v>194</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
@@ -819,13 +814,13 @@
       <c r="A32" s="1">
         <v>10055</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>10066</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="E33" s="15"/>
     </row>
@@ -833,19 +828,19 @@
       <c r="A34" s="1">
         <v>10071</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" ht="12.75" customHeight="1" spans="1:2">
       <c r="A35" s="1">
         <v>10082</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" ht="12.75" customHeight="1" spans="1:5">
       <c r="A36" s="1">
         <v>10110</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" ht="12.75" customHeight="1" spans="1:5">
       <c r="A37" s="1">
@@ -854,236 +849,243 @@
       <c r="C37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" ht="12.75" customHeight="1" spans="1:5">
       <c r="A38" s="1">
         <v>10222</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" ht="12.75" customHeight="1" spans="1:5">
       <c r="A39" s="1">
         <v>10235</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" ht="12.75" customHeight="1" spans="1:5">
       <c r="A40" s="1">
         <v>10327</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" ht="12.75" customHeight="1" spans="1:5">
       <c r="A41" s="1">
         <v>10346</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" ht="12.75" customHeight="1" spans="1:5">
       <c r="A42" s="1">
         <v>10370</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" ht="12.75" customHeight="1" spans="1:5">
       <c r="A43" s="1">
+        <v>10405</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" spans="1:5">
+      <c r="A44" s="1">
         <v>10424</v>
       </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1" spans="1:1">
-      <c r="A44" s="1">
-        <v>10469</v>
-      </c>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="12.75" customHeight="1" spans="1:1">
       <c r="A45" s="1">
-        <v>10591</v>
+        <v>10469</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1" spans="1:1">
       <c r="A46" s="1">
-        <v>10696</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1" spans="1:1">
       <c r="A47" s="1">
-        <v>10699</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1" spans="1:1">
       <c r="A48" s="1">
-        <v>10789</v>
+        <v>10699</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1" spans="1:1">
       <c r="A49" s="1">
-        <v>10812</v>
+        <v>10789</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1" spans="1:1">
       <c r="A50" s="1">
-        <v>10922</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1" spans="1:1">
       <c r="A51" s="1">
-        <v>10924</v>
+        <v>10922</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1" spans="1:1">
       <c r="A52" s="1">
-        <v>10929</v>
+        <v>10924</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1" spans="1:1">
       <c r="A53" s="1">
-        <v>10931</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1" spans="1:1">
       <c r="A54" s="1">
-        <v>10970</v>
+        <v>10931</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1" spans="1:1">
       <c r="A55" s="1">
-        <v>11152</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1" spans="1:1">
       <c r="A56" s="1">
-        <v>11172</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1" spans="1:1">
       <c r="A57" s="1">
-        <v>11185</v>
+        <v>11172</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1" spans="1:1">
       <c r="A58" s="1">
-        <v>11192</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1" spans="1:1">
       <c r="A59" s="1">
-        <v>11219</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1" spans="1:1">
       <c r="A60" s="1">
-        <v>11233</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1" spans="1:1">
       <c r="A61" s="1">
-        <v>11462</v>
+        <v>11233</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1" spans="1:1">
       <c r="A62" s="1">
-        <v>11530</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1" spans="1:1">
       <c r="A63" s="1">
-        <v>11727</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1" spans="1:1">
       <c r="A64" s="1">
-        <v>11764</v>
+        <v>11727</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1" spans="1:1">
       <c r="A65" s="1">
-        <v>11799</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1" spans="1:1">
       <c r="A66" s="1">
-        <v>11804</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1" spans="1:1">
       <c r="A67" s="1">
-        <v>11805</v>
+        <v>11804</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" spans="1:1">
       <c r="A68" s="1">
-        <v>11827</v>
+        <v>11805</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1" spans="1:1">
       <c r="A69" s="1">
-        <v>11854</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1" spans="1:1">
       <c r="A70" s="1">
-        <v>11875</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1" spans="1:1">
       <c r="A71" s="1">
-        <v>11900</v>
+        <v>11875</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1" spans="1:1">
       <c r="A72" s="1">
-        <v>11911</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1" spans="1:1">
       <c r="A73" s="1">
-        <v>11917</v>
+        <v>11911</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1" spans="1:1">
       <c r="A74" s="1">
-        <v>11934</v>
+        <v>11917</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1" spans="1:1">
       <c r="A75" s="1">
-        <v>11936</v>
+        <v>11934</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1" spans="1:1">
       <c r="A76" s="1">
-        <v>11942</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1" spans="1:1">
       <c r="A77" s="1">
-        <v>11984</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1" spans="1:1">
       <c r="A78" s="1">
-        <v>11988</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1" spans="1:1">
       <c r="A79" s="1">
-        <v>11995</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1" spans="1:1">
       <c r="A80" s="1">
-        <v>12015</v>
+        <v>11995</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1" spans="1:1">
       <c r="A81" s="1">
-        <v>12149</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1" spans="1:1">
       <c r="A82" s="1">
+        <v>12149</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A83" s="1">
         <v>12372</v>
       </c>
     </row>
@@ -1127,20 +1129,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Code Practice.xlsx
+++ b/Code Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8385"/>
+    <workbookView windowWidth="20370" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="UVA" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -256,10 +262,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -605,8 +612,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -646,7 +653,7 @@
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -655,7 +662,7 @@
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1">
@@ -664,7 +671,7 @@
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1">
@@ -673,21 +680,21 @@
       <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1">
         <v>146</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="1">
         <v>194</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="1">
@@ -725,10 +732,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:1">
+    <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="1">
         <v>458</v>
       </c>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="1">
@@ -817,12 +825,12 @@
       <c r="B32" s="11"/>
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A33" s="13">
+      <c r="A33" s="14">
         <v>10066</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" ht="12.75" customHeight="1" spans="1:2">
       <c r="A34" s="1">
@@ -846,7 +854,7 @@
       <c r="A37" s="1">
         <v>10130</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="11"/>
@@ -885,7 +893,7 @@
       <c r="A43" s="1">
         <v>10405</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" ht="12.75" customHeight="1" spans="1:5">

--- a/Code Practice.xlsx
+++ b/Code Practice.xlsx
@@ -65,12 +65,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -142,6 +142,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="57"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,12 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="57"/>
       </patternFill>
     </fill>
@@ -195,6 +195,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,13 +268,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,8 +618,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -869,6 +875,7 @@
       <c r="A39" s="1">
         <v>10235</v>
       </c>
+      <c r="B39" s="18"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" ht="12.75" customHeight="1" spans="1:5">
@@ -893,7 +900,7 @@
       <c r="A43" s="1">
         <v>10405</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="13"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" ht="12.75" customHeight="1" spans="1:5">
